--- a/array_p.xlsx
+++ b/array_p.xlsx
@@ -19,7 +19,7 @@
     <sheet name="array_p (5)" sheetId="5" r:id="rId5"/>
     <sheet name="array_p (6)＿これ" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -38,7 +38,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -752,97 +752,97 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="176" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="176" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="176" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="176" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="34" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="34" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="176" fontId="0" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="36" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="36" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="33" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="33" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="36" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="36" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="33" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="33" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="34" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="34" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="33" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="33" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="39" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="39" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="39" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="39" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="39" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="39" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="39" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="39" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="39" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="39" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="36" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="36" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -23898,8 +23898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="W15" sqref="W15"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/array_p.xlsx
+++ b/array_p.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="array_p" sheetId="1" r:id="rId1"/>
@@ -18,18 +18,27 @@
     <sheet name="array_p (4)" sheetId="4" r:id="rId4"/>
     <sheet name="array_p (5)" sheetId="5" r:id="rId5"/>
     <sheet name="array_p (6)＿これ" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="3">
   <si>
     <t>←追加</t>
     <rPh sb="1" eb="3">
       <t>ツイカ</t>
     </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>i</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>j</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -3783,6 +3792,74 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2080762" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8924925" y="533400"/>
+          <a:ext cx="2080762" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>inflow boudary condition </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>の計算</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -11304,7 +11381,7 @@
   <dimension ref="A1:AR34"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="U6" sqref="U1:Y6"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -23898,7 +23975,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
@@ -28071,4 +28148,328 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AC8" sqref="AC8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="37" width="4.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="U2">
+        <v>1</v>
+      </c>
+      <c r="V2">
+        <v>1</v>
+      </c>
+      <c r="W2">
+        <v>1</v>
+      </c>
+      <c r="X2">
+        <v>1</v>
+      </c>
+      <c r="Y2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="U3">
+        <v>1</v>
+      </c>
+      <c r="V3">
+        <v>1</v>
+      </c>
+      <c r="W3">
+        <v>1</v>
+      </c>
+      <c r="X3">
+        <v>1</v>
+      </c>
+      <c r="Y3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="13">
+        <v>1</v>
+      </c>
+      <c r="D4" s="13">
+        <v>1</v>
+      </c>
+      <c r="E4" s="13">
+        <v>1</v>
+      </c>
+      <c r="F4" s="13">
+        <v>1</v>
+      </c>
+      <c r="G4" s="13">
+        <v>1</v>
+      </c>
+      <c r="H4" s="13">
+        <v>1</v>
+      </c>
+      <c r="I4" s="13">
+        <v>1</v>
+      </c>
+      <c r="J4" s="13">
+        <v>1</v>
+      </c>
+      <c r="K4" s="13">
+        <v>1</v>
+      </c>
+      <c r="L4" s="13">
+        <v>1</v>
+      </c>
+      <c r="M4" s="13">
+        <v>1</v>
+      </c>
+      <c r="N4" s="13">
+        <v>1</v>
+      </c>
+      <c r="O4" s="13">
+        <v>1</v>
+      </c>
+      <c r="P4" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="13">
+        <v>1</v>
+      </c>
+      <c r="R4" s="13">
+        <v>1</v>
+      </c>
+      <c r="S4" s="13">
+        <v>1</v>
+      </c>
+      <c r="T4" s="13">
+        <v>1</v>
+      </c>
+      <c r="U4" s="13">
+        <v>1</v>
+      </c>
+      <c r="V4" s="13">
+        <v>1</v>
+      </c>
+      <c r="W4" s="13">
+        <v>1</v>
+      </c>
+      <c r="X4" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="13">
+        <v>1</v>
+      </c>
+      <c r="D5" s="13">
+        <v>1</v>
+      </c>
+      <c r="E5" s="13">
+        <v>1</v>
+      </c>
+      <c r="F5" s="13">
+        <v>1</v>
+      </c>
+      <c r="G5" s="13">
+        <v>1</v>
+      </c>
+      <c r="H5" s="13">
+        <v>1</v>
+      </c>
+      <c r="I5" s="13">
+        <v>1</v>
+      </c>
+      <c r="J5" s="13">
+        <v>1</v>
+      </c>
+      <c r="K5" s="13">
+        <v>1</v>
+      </c>
+      <c r="L5" s="13">
+        <v>1</v>
+      </c>
+      <c r="M5" s="13">
+        <v>1</v>
+      </c>
+      <c r="N5" s="13">
+        <v>1</v>
+      </c>
+      <c r="O5" s="13">
+        <v>1</v>
+      </c>
+      <c r="P5" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="13">
+        <v>1</v>
+      </c>
+      <c r="R5" s="13">
+        <v>1</v>
+      </c>
+      <c r="S5" s="13">
+        <v>1</v>
+      </c>
+      <c r="T5" s="13">
+        <v>1</v>
+      </c>
+      <c r="U5" s="13">
+        <v>1</v>
+      </c>
+      <c r="V5" s="13">
+        <v>1</v>
+      </c>
+      <c r="W5" s="13">
+        <v>1</v>
+      </c>
+      <c r="X5" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="13">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>